--- a/Allen/Mitigation strategies (reweighting, debiasing) documented and validated/gpt4o_debiasing_scoring_weighted.xlsx
+++ b/Allen/Mitigation strategies (reweighting, debiasing) documented and validated/gpt4o_debiasing_scoring_weighted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,45 +466,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>audit_usefulness</t>
+          <t>w_evidence_extraction_quality</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>w_evidence_extraction_quality</t>
+          <t>w_coverage_of_debiasing_mitigation_dimensions</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>w_coverage_of_debiasing_mitigation_dimensions</t>
+          <t>w_structure_and_formatting</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>w_structure_and_formatting</t>
+          <t>w_relevance_and_faithfulness</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>w_relevance_and_faithfulness</t>
+          <t>w_identification_of_missing_disclosures</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>w_identification_of_missing_disclosures</t>
+          <t>weighted_final_score</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>w_audit_usefulness</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_final_score</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>justification</t>
         </is>
@@ -517,7 +507,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -526,38 +516,32 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>The report is strong in evidence extraction, with accurate citations and full sentences, but lacks some validation metrics. Coverage of debiasing methods is comprehensive, yet some methods lack detailed validation. The structure is clear, with well-organized tables and sections, though some headings could be more descriptive. The report remains relevant and faithful to the sources, but could better highlight the absence of real-world evaluations. While it identifies missing disclosures, it could more explicitly address the lack of trade-off analyses. The audit usefulness is reasonable, but the report could improve traceability by providing more detailed source references.</t>
+        <v>3.35</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>The report provides a structured overview of debiasing strategies with clear sections and tables, earning a 4 in structure and formatting. However, the evidence extraction quality is rated 3 due to a lack of full sentence quotations and some missing validation details. Coverage of debiasing dimensions is strong, with a variety of methods discussed, but some common strategies like resampling are not explicitly documented, leading to a score of 4. Relevance and faithfulness are reasonable, but some claims lack direct support from the sources, resulting in a 3. Missing disclosures are identified, but not comprehensively, also scoring a 3. Overall, the report is useful for audits but could benefit from more detailed validation evidence and explicit documentation of all methods.</t>
         </is>
       </c>
     </row>
